--- a/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,65%</t>
+          <t>-20,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>-20,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,38</t>
+          <t>-1,71; 0,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,18</t>
+          <t>-3,19; 3,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,24</t>
+          <t>-2,75; 1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 80,91</t>
+          <t>-60,96; 60,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 95,79</t>
+          <t>-40,15; 97,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 105,42</t>
+          <t>-66,9; 76,65</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>-16,43%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,58</t>
+          <t>-2,47; 0,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,2</t>
+          <t>-7,37; 0,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,9</t>
+          <t>-3,57; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 95,13</t>
+          <t>-77,27; 122,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,43; 18,29</t>
+          <t>-65,72; 14,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 82,45</t>
+          <t>-61,15; 82,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>133,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>159,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>38,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,5</t>
+          <t>0,4; 6,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,81</t>
+          <t>0,73; 18,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,39</t>
+          <t>-1,34; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,64; 423,71</t>
+          <t>11,74; 439,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 105,13</t>
+          <t>2,87; 1077,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 227,07</t>
+          <t>-69,86; 515,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>114,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>-43,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>58,38%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,28</t>
+          <t>0,26; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,83</t>
+          <t>-9,48; -0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,14</t>
+          <t>-0,64; 3,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 201,0</t>
+          <t>5,22; 281,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 14,17</t>
+          <t>-80,17; -3,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 179,98</t>
+          <t>-27,1; 222,07</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>29,44%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,56</t>
+          <t>-1,83; 1,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,11</t>
+          <t>-3,94; 7,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,97</t>
+          <t>-2,13; 4,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-78,52; 209,47</t>
+          <t>-52,26; 174,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 137,4</t>
+          <t>-33,19; 149,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 136,12</t>
+          <t>-67,03; 583,81</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>54,26%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>213,8%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>81,55%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>98,45%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 45,11</t>
+          <t>-1,7; 2,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,09</t>
+          <t>-0,54; 8,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,49</t>
+          <t>1,75; 38,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-54,01; 459,19</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-22,9; 1248,39</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-25,61; 434,55</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-34,14; 526,14</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,52</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,77</t>
+          <t>-1,98; 3,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,13</t>
+          <t>-0,58; 1,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 68,21</t>
+          <t>-0,01; 83,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 28,76</t>
+          <t>-24,4; 61,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 64,52</t>
+          <t>-19,96; 79,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,85%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,81</t>
+          <t>-1,39; 1,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,91</t>
+          <t>-3,52; 3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 60,52</t>
+          <t>-46,91; 108,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 97,58</t>
+          <t>-40,67; 105,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,87</t>
+          <t>-1,57; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,8</t>
+          <t>-7,38; 0,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 122,04</t>
+          <t>-61,8; 208,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 14,87</t>
+          <t>-63,71; 16,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>133,54%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,7</t>
+          <t>-0,29; 5,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 18,02</t>
+          <t>1,1; 16,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 439,88</t>
+          <t>-16,19; 275,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 1077,47</t>
+          <t>-1,24; 958,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>114,87%</t>
+          <t>137,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,88</t>
+          <t>0,8; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -0,4</t>
+          <t>-9,04; 0,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 281,34</t>
+          <t>36,67; 399,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,17; -3,57</t>
+          <t>-81,01; -0,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,78</t>
+          <t>-1,4; 1,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,44</t>
+          <t>-4,43; 6,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 174,51</t>
+          <t>-46,3; 165,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 149,31</t>
+          <t>-37,33; 132,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>119,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,94</t>
+          <t>-0,41; 4,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 8,33</t>
+          <t>-0,15; 8,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 459,19</t>
+          <t>-17,69; 816,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 1248,39</t>
+          <t>-29,02; 1318,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,3; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,17</t>
+          <t>-2,01; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 83,37</t>
+          <t>12,34; 105,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 61,65</t>
+          <t>-24,98; 57,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-20,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>4,09%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,12%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-20,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,24; 3,8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 1,36</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,39; 1,69</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 3,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 1,36</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-41,3; 110,59</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-66,9; 76,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-46,91; 108,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-40,67; 105,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-66,9; 76,65</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,98</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-38,13%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-16,43%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>9,03%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-34,56%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-16,43%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-7,63; 0,55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 2,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,57; 1,81</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; 0,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 2,03</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-65,58; 12,15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-61,15; 82,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-61,8; 208,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-63,71; 16,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-61,15; 82,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,94</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>83,43%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>159,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>38,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,29; 10,19</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 4,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,29; 5,1</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 16,99</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 4,6</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-23,79; 145,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-69,86; 515,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-16,19; 275,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 958,58</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-69,86; 515,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,1</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-23,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58,38%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>137,37%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-43,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>58,38%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-5,51; 0,91</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,76</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,8; 3,67</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 0,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 3,76</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-48,34; 14,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; 222,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>36,67; 399,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-81,01; -0,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-27,1; 222,07</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>74,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>18,45%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>30,91%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,44%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,49; 9,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 4,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,4; 1,97</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 6,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 4,12</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>2,52; 226,75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-67,03; 583,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-46,3; 165,54</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,33; 132,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-67,03; 583,81</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,11</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>80,04%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>119,58%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>213,8%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,72; 7,18</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 38,58</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-0,41; 4,33</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 8,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 38,58</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-45,37; 509,66</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-17,69; 816,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-29,02; 1318,93</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>50,92%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,04%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,4; 2,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 1,72</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,3; 1,77</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 3,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 1,72</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-15,35; 32,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 79,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>12,34; 105,24</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-24,98; 57,34</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-19,96; 79,79</t>
         </is>
       </c>
     </row>
